--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C59">
         <v>470</v>
@@ -3891,13 +3891,13 @@
         <v>534</v>
       </c>
       <c r="O59">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="P59">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q59">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="R59">
         <v>112</v>

--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,13 +3852,13 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C59">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D59">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="E59">
         <v>2854</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>6290</v>
+        <v>6288</v>
       </c>
       <c r="J59">
-        <v>6178</v>
+        <v>6176</v>
       </c>
       <c r="K59">
         <v>123</v>
@@ -3888,16 +3888,16 @@
         <v>2048</v>
       </c>
       <c r="N59">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O59">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="P59">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q59">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="R59">
         <v>112</v>

--- a/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/8/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3852,13 +3855,13 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C59">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D59">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="E59">
         <v>2854</v>
@@ -3873,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>6288</v>
+        <v>6286</v>
       </c>
       <c r="J59">
-        <v>6176</v>
+        <v>6174</v>
       </c>
       <c r="K59">
         <v>123</v>
@@ -3888,18 +3891,74 @@
         <v>2048</v>
       </c>
       <c r="N59">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="O59">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="P59">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Q59">
         <v>1256</v>
       </c>
       <c r="R59">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>357</v>
+      </c>
+      <c r="C60">
+        <v>245</v>
+      </c>
+      <c r="D60">
+        <v>2806</v>
+      </c>
+      <c r="E60">
+        <v>2561</v>
+      </c>
+      <c r="F60">
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <v>112</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>5478</v>
+      </c>
+      <c r="J60">
+        <v>5367</v>
+      </c>
+      <c r="K60">
+        <v>290</v>
+      </c>
+      <c r="L60">
+        <v>731</v>
+      </c>
+      <c r="M60">
+        <v>1626</v>
+      </c>
+      <c r="N60">
+        <v>660</v>
+      </c>
+      <c r="O60">
+        <v>383</v>
+      </c>
+      <c r="P60">
+        <v>392</v>
+      </c>
+      <c r="Q60">
+        <v>1284</v>
+      </c>
+      <c r="R60">
         <v>112</v>
       </c>
     </row>
